--- a/ПКМ/resdata PKM Temp=-29, Volume=10x15x4.xlsx
+++ b/ПКМ/resdata PKM Temp=-29, Volume=10x15x4.xlsx
@@ -1564,16 +1564,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9512779602773693</v>
+        <v>1.120714334157229</v>
       </c>
       <c r="C2" t="n">
-        <v>1.027107135320431</v>
+        <v>1.176671147492525</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9261720881537788</v>
+        <v>0.9524448156525809</v>
       </c>
       <c r="E2" t="n">
-        <v>0.498132968536216</v>
+        <v>0.4594836181422484</v>
       </c>
     </row>
     <row r="3">
@@ -1633,7 +1633,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>42.5496465454159</v>
+        <v>50.0380136651292</v>
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
@@ -1646,12 +1646,12 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>30.85128217233678</v>
+        <v>34.59644239835414</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="n">
-        <v>0.8489587470107228</v>
+        <v>0.8492747134067309</v>
       </c>
     </row>
     <row r="9">
@@ -1661,12 +1661,12 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8.807905609360621</v>
+        <v>10.26340466096492</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="n">
-        <v>0.8372354405460016</v>
+        <v>0.8368143129038215</v>
       </c>
     </row>
     <row r="10">
@@ -1676,12 +1676,12 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2.370131987536165</v>
+        <v>3.081935711616972</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>0.8002707979694625</v>
+        <v>0.8069393564240267</v>
       </c>
     </row>
     <row r="11">
@@ -1691,12 +1691,12 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.52032677618233</v>
+        <v>2.096230894193166</v>
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="n">
-        <v>0.2085032029226098</v>
+        <v>0.4189883309377445</v>
       </c>
     </row>
     <row r="12">
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.07889590771198568</v>
+        <v>0.1357633087229349</v>
       </c>
       <c r="C12" t="n">
-        <v>0.08819258914887282</v>
+        <v>0.15120473629705</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8945865913836145</v>
+        <v>0.8978773552186909</v>
       </c>
       <c r="E12" t="n">
         <v>0.07642926562499497</v>
@@ -1787,10 +1787,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>39778.27511785491</v>
+        <v>39524.05470790891</v>
       </c>
       <c r="C2" t="n">
-        <v>40180.07587662112</v>
+        <v>39923.28758374637</v>
       </c>
       <c r="D2" t="n">
         <v>0.99</v>
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>89465.66002141054</v>
+        <v>86668.29357587254</v>
       </c>
       <c r="C3" t="n">
-        <v>90369.35355698035</v>
+        <v>87543.73088471973</v>
       </c>
       <c r="D3" t="n">
         <v>0.99</v>
@@ -1819,10 +1819,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36355.7549142362</v>
+        <v>37187.95863455437</v>
       </c>
       <c r="C4" t="n">
-        <v>36722.98476185474</v>
+        <v>37563.59458035795</v>
       </c>
       <c r="D4" t="n">
         <v>0.99</v>
@@ -1835,10 +1835,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>503.091758884994</v>
+        <v>505.0246839529724</v>
       </c>
       <c r="C5" t="n">
-        <v>508.1734938232262</v>
+        <v>510.1259433868408</v>
       </c>
       <c r="D5" t="n">
         <v>0.99</v>
@@ -1851,10 +1851,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31698.75211491385</v>
+        <v>32560.44266205884</v>
       </c>
       <c r="C6" t="n">
-        <v>32018.94153021601</v>
+        <v>32889.33602228166</v>
       </c>
       <c r="D6" t="n">
         <v>0.99</v>
@@ -1867,10 +1867,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33802.68899396787</v>
+        <v>35578.9837732105</v>
       </c>
       <c r="C7" t="n">
-        <v>34144.13029693725</v>
+        <v>35938.36744768737</v>
       </c>
       <c r="D7" t="n">
         <v>0.99</v>
@@ -1883,7 +1883,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27.76299778708549</v>
+        <v>31.55813934973797</v>
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="n">
@@ -1897,7 +1897,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>108.7387265296335</v>
+        <v>105.1881150535927</v>
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="n">
@@ -1911,7 +1911,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.217258591689905</v>
+        <v>8.972728505078218</v>
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="n">
@@ -4420,13 +4420,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>458.9534140319786</v>
+        <v>459.3956171432342</v>
       </c>
       <c r="C6" t="n">
         <v>0.1</v>
       </c>
       <c r="D6" t="n">
-        <v>863.7379072294278</v>
+        <v>864.2378081694005</v>
       </c>
       <c r="E6" t="n">
         <v>513.6783557334001</v>
@@ -4444,13 +4444,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>300.3886929270963</v>
+        <v>305.8953628588525</v>
       </c>
       <c r="C7" t="n">
         <v>0.1</v>
       </c>
       <c r="D7" t="n">
-        <v>687.8119556133504</v>
+        <v>693.8126191233682</v>
       </c>
       <c r="E7" t="n">
         <v>513.6783557334001</v>
@@ -4468,13 +4468,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>234.263570505407</v>
+        <v>238.3270825603783</v>
       </c>
       <c r="C8" t="n">
         <v>0.1</v>
       </c>
       <c r="D8" t="n">
-        <v>616.3217237358094</v>
+        <v>620.6859355458076</v>
       </c>
       <c r="E8" t="n">
         <v>513.6783557334001</v>
@@ -4492,13 +4492,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>233.3419806995732</v>
+        <v>237.4027203042963</v>
       </c>
       <c r="C9" t="n">
         <v>0.1</v>
       </c>
       <c r="D9" t="n">
-        <v>615.3324402899502</v>
+        <v>619.6928511814518</v>
       </c>
       <c r="E9" t="n">
         <v>513.6783557334001</v>
@@ -4516,13 +4516,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>174.9397546926526</v>
+        <v>177.4505090704717</v>
       </c>
       <c r="C10" t="n">
         <v>0.1</v>
       </c>
       <c r="D10" t="n">
-        <v>552.9997739962707</v>
+        <v>555.6657500681021</v>
       </c>
       <c r="E10" t="n">
         <v>513.6783557334001</v>
@@ -4540,13 +4540,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>112.012967197417</v>
+        <v>111.2264838394102</v>
       </c>
       <c r="C11" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" t="n">
-        <v>486.5299102851781</v>
+        <v>485.7029668467287</v>
       </c>
       <c r="E11" t="n">
         <v>513.6783557334001</v>
@@ -4668,16 +4668,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>502.2303150089074</v>
+        <v>501.1427434795507</v>
       </c>
       <c r="C3" t="n">
-        <v>7.323190651445278</v>
+        <v>8.024964855316972</v>
       </c>
       <c r="D3" t="n">
-        <v>3413.013186953295</v>
+        <v>3402.023207719346</v>
       </c>
       <c r="E3" t="n">
-        <v>61.20973008220592</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
@@ -4689,16 +4689,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>292.2610621620709</v>
+        <v>298.0564799924726</v>
       </c>
       <c r="C4" t="n">
-        <v>7.689996871010157</v>
+        <v>8.355222087948301</v>
       </c>
       <c r="D4" t="n">
-        <v>2763.205091497066</v>
+        <v>2753.290768798732</v>
       </c>
       <c r="E4" t="n">
-        <v>61.20973008220592</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
@@ -4710,16 +4710,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>292.1536524427157</v>
+        <v>297.4693664500282</v>
       </c>
       <c r="C5" t="n">
-        <v>7.689996871010157</v>
+        <v>8.355222087948301</v>
       </c>
       <c r="D5" t="n">
-        <v>1301.693657082539</v>
+        <v>1330.824602752838</v>
       </c>
       <c r="E5" t="n">
-        <v>61.20973008220592</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
@@ -4731,16 +4731,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.511514765212</v>
+        <v>169.3529352466095</v>
       </c>
       <c r="C6" t="n">
-        <v>7.689996871010157</v>
+        <v>8.355222087948301</v>
       </c>
       <c r="D6" t="n">
-        <v>707.7656626487639</v>
+        <v>720.455319947123</v>
       </c>
       <c r="E6" t="n">
-        <v>61.20973008220592</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
@@ -4752,16 +4752,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>163.8501624992855</v>
+        <v>166.1054821890966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6811805032628938</v>
+        <v>0.7203524995237668</v>
       </c>
       <c r="D7" t="n">
-        <v>692.2243760101888</v>
+        <v>702.059318103058</v>
       </c>
       <c r="E7" t="n">
-        <v>61.20973008220592</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -4773,16 +4773,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>175.8850596752635</v>
+        <v>177.8241292288279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6740225672829501</v>
+        <v>0.7132765608058129</v>
       </c>
       <c r="D8" t="n">
-        <v>2791.466399184156</v>
+        <v>2793.304510181886</v>
       </c>
       <c r="E8" t="n">
-        <v>16.84243270498177</v>
+        <v>17.21389934898643</v>
       </c>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -4794,16 +4794,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>163.8501623648567</v>
+        <v>166.1054820498788</v>
       </c>
       <c r="C9" t="n">
-        <v>0.6811805032628938</v>
+        <v>0.7203524995237668</v>
       </c>
       <c r="D9" t="n">
-        <v>2761.598672633583</v>
+        <v>2763.959197375048</v>
       </c>
       <c r="E9" t="n">
-        <v>16.84243270498177</v>
+        <v>17.21389934898643</v>
       </c>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -4815,16 +4815,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>163.8501624992855</v>
+        <v>166.1054821890966</v>
       </c>
       <c r="C10" t="n">
-        <v>0.6811805032628938</v>
+        <v>0.7203524995237668</v>
       </c>
       <c r="D10" t="n">
-        <v>732.6277536159416</v>
+        <v>739.5950138196331</v>
       </c>
       <c r="E10" t="n">
-        <v>78.0521627871877</v>
+        <v>78.13552480092102</v>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -4836,16 +4836,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.8501624992855</v>
+        <v>166.1054821890966</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6811805032628938</v>
+        <v>0.7203524995237668</v>
       </c>
       <c r="D11" t="n">
-        <v>732.6277536159416</v>
+        <v>739.5950138196331</v>
       </c>
       <c r="E11" t="n">
-        <v>78.0521627871877</v>
+        <v>78.13146570727676</v>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -4857,16 +4857,16 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>71.41802781081174</v>
+        <v>67.75854939579165</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6811805032628938</v>
+        <v>0.7203524995237668</v>
       </c>
       <c r="D12" t="n">
-        <v>299.5495686317248</v>
+        <v>284.2217086968436</v>
       </c>
       <c r="E12" t="n">
-        <v>78.0521627871877</v>
+        <v>78.13552480092102</v>
       </c>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -4878,16 +4878,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.41983650631607</v>
+        <v>67.76086348535699</v>
       </c>
       <c r="C13" t="n">
         <v>0.6964</v>
       </c>
       <c r="D13" t="n">
-        <v>299.5571463777391</v>
+        <v>284.2313989224058</v>
       </c>
       <c r="E13" t="n">
-        <v>71.32670757866316</v>
+        <v>78.13517896811156</v>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
@@ -4899,16 +4899,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.41983650631607</v>
+        <v>67.76086348535699</v>
       </c>
       <c r="C14" t="n">
         <v>0.6964</v>
       </c>
       <c r="D14" t="n">
-        <v>299.5571463777391</v>
+        <v>284.2313989224058</v>
       </c>
       <c r="E14" t="n">
-        <v>71.32670757866316</v>
+        <v>78.13517896811156</v>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -4920,16 +4920,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>113.7417001630712</v>
+        <v>112.3327815814204</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1623558685841623</v>
+        <v>0.1549820463298083</v>
       </c>
       <c r="D15" t="n">
-        <v>477.2599830437059</v>
+        <v>471.2911955301098</v>
       </c>
       <c r="E15" t="n">
-        <v>62.65208635392705</v>
+        <v>63.21021655749683</v>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -4941,16 +4941,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>78.46409690825237</v>
+        <v>78.28616488670866</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1623561916407689</v>
+        <v>0.1549822626546197</v>
       </c>
       <c r="D16" t="n">
-        <v>328.6591182709587</v>
+        <v>327.9067218465611</v>
       </c>
       <c r="E16" t="n">
-        <v>62.6533778797798</v>
+        <v>63.21012738563225</v>
       </c>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -5004,13 +5004,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.10645328401253</v>
+        <v>94.44038938497134</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>398.2107199001605</v>
+        <v>395.421910354875</v>
       </c>
       <c r="E19" t="n">
         <v>87.68260529840448</v>
@@ -5025,16 +5025,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>124.4109391478721</v>
+        <v>124.7917925930161</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2280535351572279</v>
+        <v>0.2307452908001723</v>
       </c>
       <c r="D20" t="n">
-        <v>2710.215363911973</v>
+        <v>2693.797854298268</v>
       </c>
       <c r="E20" t="n">
-        <v>12.77787698386079</v>
+        <v>14.64483204044051</v>
       </c>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -5046,16 +5046,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>122.7567684874477</v>
+        <v>123.1336127585729</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2166508583993665</v>
+        <v>0.2192080262601636</v>
       </c>
       <c r="D21" t="n">
-        <v>515.5290209781933</v>
+        <v>517.131823165013</v>
       </c>
       <c r="E21" t="n">
-        <v>12.77787698386079</v>
+        <v>14.64483204044051</v>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -5067,13 +5067,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>110.4737882350799</v>
+        <v>109.1715757549674</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="n">
-        <v>462.5537513402796</v>
+        <v>457.1013876860487</v>
       </c>
       <c r="E22" t="n">
         <v>696.0543726219674</v>
@@ -5109,7 +5109,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>73.16268285974908</v>
+        <v>73.0787781818097</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
@@ -5130,16 +5130,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>115.3101995021593</v>
+        <v>113.8882293689757</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1709009142991182</v>
+        <v>0.1631389961366403</v>
       </c>
       <c r="D25" t="n">
-        <v>2669.734138847679</v>
+        <v>2645.253502800743</v>
       </c>
       <c r="E25" t="n">
-        <v>49.87429575945706</v>
+        <v>48.56537433930794</v>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -5151,19 +5151,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>499.3305214918942</v>
+        <v>498.5415270383926</v>
       </c>
       <c r="C26" t="n">
-        <v>6.725524586423957</v>
+        <v>7.488859750965526</v>
       </c>
       <c r="D26" t="n">
-        <v>3413.013186953295</v>
+        <v>3402.023207719346</v>
       </c>
       <c r="E26" t="n">
-        <v>54.48308140457729</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F26" t="n">
-        <v>6.819506634102289</v>
+        <v>6.758456212394312</v>
       </c>
       <c r="G26" t="n">
         <v>100</v>
@@ -5176,19 +5176,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>195.6672522660866</v>
+        <v>190.7798859616589</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4957347839082938</v>
+        <v>0.5324426856027062</v>
       </c>
       <c r="D27" t="n">
-        <v>2846.758830977297</v>
+        <v>2834.138780117366</v>
       </c>
       <c r="E27" t="n">
-        <v>54.48308140457729</v>
+        <v>60.92162545193459</v>
       </c>
       <c r="F27" t="n">
-        <v>7.045589412367202</v>
+        <v>6.986530182861482</v>
       </c>
       <c r="G27" t="n">
         <v>100</v>
@@ -5201,19 +5201,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>172.9323180895837</v>
+        <v>174.9519981748298</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5764636060570463</v>
+        <v>0.6167717909881332</v>
       </c>
       <c r="D28" t="n">
-        <v>2791.466399184156</v>
+        <v>2793.304510181886</v>
       </c>
       <c r="E28" t="n">
-        <v>16.84243270498177</v>
+        <v>17.21389934898643</v>
       </c>
       <c r="F28" t="n">
-        <v>6.857364522058126</v>
+        <v>6.831592269698577</v>
       </c>
       <c r="G28" t="n">
         <v>100</v>
@@ -5226,19 +5226,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>189.6205046879386</v>
+        <v>186.6753637102507</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4957347839082938</v>
+        <v>0.5324426856027062</v>
       </c>
       <c r="D29" t="n">
-        <v>2833.702366215749</v>
+        <v>2825.142654290482</v>
       </c>
       <c r="E29" t="n">
-        <v>71.32551410955907</v>
+        <v>78.13552480092102</v>
       </c>
       <c r="F29" t="n">
-        <v>7.017558224096963</v>
+        <v>6.967052669739298</v>
       </c>
       <c r="G29" t="n">
         <v>100</v>
@@ -5251,22 +5251,22 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>124.4105114182788</v>
+        <v>124.7896442656005</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2280562940859862</v>
+        <v>0.2307387748908385</v>
       </c>
       <c r="D30" t="n">
-        <v>2710.213517669473</v>
+        <v>2693.788770290666</v>
       </c>
       <c r="E30" t="n">
-        <v>71.32551410955907</v>
+        <v>78.13552480092102</v>
       </c>
       <c r="F30" t="n">
-        <v>7.077944290974733</v>
+        <v>7.031421953422551</v>
       </c>
       <c r="G30" t="n">
-        <v>99.906478648494</v>
+        <v>99.13139246159065</v>
       </c>
     </row>
     <row r="31">
@@ -5276,22 +5276,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>115.3096060840456</v>
+        <v>113.8867374610976</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1708976131032706</v>
+        <v>0.1631310070297422</v>
       </c>
       <c r="D31" t="n">
-        <v>2669.731465674311</v>
+        <v>2645.247227087047</v>
       </c>
       <c r="E31" t="n">
-        <v>58.54772351508907</v>
+        <v>63.49068258273213</v>
       </c>
       <c r="F31" t="n">
-        <v>7.103953146971195</v>
+        <v>7.061428377368734</v>
       </c>
       <c r="G31" t="n">
-        <v>98.67702965491385</v>
+        <v>97.67149773947482</v>
       </c>
     </row>
     <row r="32">
@@ -5301,19 +5301,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>91.20113328764211</v>
+        <v>79.46527674112855</v>
       </c>
       <c r="C32" t="n">
-        <v>0.01689025831773002</v>
+        <v>0.02842188056860433</v>
       </c>
       <c r="D32" t="n">
-        <v>2669.731465674311</v>
+        <v>2645.247227087047</v>
       </c>
       <c r="E32" t="n">
-        <v>8.673329698883357</v>
+        <v>14.92505158247931</v>
       </c>
       <c r="F32" t="n">
-        <v>8.159373685659526</v>
+        <v>7.851837179511128</v>
       </c>
       <c r="G32" t="n">
         <v>100</v>
@@ -5326,22 +5326,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>58.31370793933422</v>
+        <v>21.49342891957036</v>
       </c>
       <c r="C33" t="n">
-        <v>0.002214990195055469</v>
+        <v>0.00256469761029832</v>
       </c>
       <c r="D33" t="n">
-        <v>2609.739882943481</v>
+        <v>2504.796731314291</v>
       </c>
       <c r="E33" t="n">
-        <v>8.673329698883357</v>
+        <v>14.92505158247931</v>
       </c>
       <c r="F33" t="n">
-        <v>8.923002930685447</v>
+        <v>8.512849331569972</v>
       </c>
       <c r="G33" t="n">
-        <v>100</v>
+        <v>98.55715456719251</v>
       </c>
     </row>
     <row r="34">
@@ -5351,16 +5351,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.12139954717526</v>
+        <v>21.49342891957036</v>
       </c>
       <c r="C34" t="n">
-        <v>0.002214990195055469</v>
+        <v>0.00256469761029832</v>
       </c>
       <c r="D34" t="n">
-        <v>80.23736772001084</v>
+        <v>90.16265360780717</v>
       </c>
       <c r="E34" t="n">
-        <v>8.673329698883357</v>
+        <v>14.92505158247931</v>
       </c>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
@@ -5372,16 +5372,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>21.13983589698989</v>
+        <v>23.51382831980254</v>
       </c>
       <c r="C35" t="n">
         <v>0.6964</v>
       </c>
       <c r="D35" t="n">
-        <v>89.33374828561335</v>
+        <v>99.25899126350473</v>
       </c>
       <c r="E35" t="n">
-        <v>8.673329698883357</v>
+        <v>14.92505158247931</v>
       </c>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
